--- a/data/trans_dic/KIDM_C_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_2_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,84</t>
+          <t>0,0; 21,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,67</t>
+          <t>0,0; 33,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 18,49</t>
+          <t>2,1; 19,34</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,97</t>
+          <t>0,46; 4,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,23</t>
+          <t>0,74; 4,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,67</t>
+          <t>0,9; 3,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 12,2</t>
+          <t>1,17; 13,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,98</t>
+          <t>0,0; 8,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,47</t>
+          <t>0,95; 8,52</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,59</t>
+          <t>1,14; 4,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,11</t>
+          <t>1,22; 5,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,82</t>
+          <t>1,45; 4,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_C_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,65%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,92</t>
+          <t>0,0; 32,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,86</t>
+          <t>0,0; 22,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 19,34</t>
+          <t>2,27; 21,24</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,01</t>
+          <t>0,62; 4,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,8</t>
+          <t>0,44; 4,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,42</t>
+          <t>0,81; 3,45</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 13,35</t>
+          <t>0,0; 6,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,21</t>
+          <t>1,12; 12,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,52</t>
+          <t>1,07; 8,28</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,43%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,45</t>
+          <t>1,01; 4,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,21</t>
+          <t>1,05; 4,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,01</t>
+          <t>1,34; 3,93</t>
         </is>
       </c>
     </row>
